--- a/コンポーネント作成支援ツール.xlsx
+++ b/コンポーネント作成支援ツール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C886F560-6BB2-B746-8791-F2D6029CEAF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444C6087-A5C6-8A41-9837-29D7AB75F362}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{C678366D-3CA3-1945-8BE4-96DEAB0402A1}"/>
   </bookViews>
@@ -436,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,48 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,6 +483,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +847,7 @@
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" activeCellId="2" sqref="G6 G5 F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -857,25 +860,25 @@
   <sheetData>
     <row r="1" spans="2:10" ht="21" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="21" thickBot="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="9">
         <v>3</v>
       </c>
@@ -899,7 +902,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -914,48 +917,48 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="12"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="14"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4">
@@ -963,27 +966,27 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="12"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" ht="21" thickBot="1">
-      <c r="B10" s="13"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5">
         <v>3</v>
       </c>

--- a/コンポーネント作成支援ツール.xlsx
+++ b/コンポーネント作成支援ツール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C886F560-6BB2-B746-8791-F2D6029CEAF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89A7118-0CB2-CB44-86AE-C4A900892F85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{C678366D-3CA3-1945-8BE4-96DEAB0402A1}"/>
   </bookViews>
@@ -436,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,48 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,6 +483,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +847,7 @@
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" activeCellId="2" sqref="G6 G5 F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -857,25 +860,25 @@
   <sheetData>
     <row r="1" spans="2:10" ht="21" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="21" thickBot="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="9">
         <v>3</v>
       </c>
@@ -899,7 +902,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -914,48 +917,48 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="12"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="14"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4">
@@ -963,27 +966,27 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="12"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" ht="21" thickBot="1">
-      <c r="B10" s="13"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5">
         <v>3</v>
       </c>

--- a/コンポーネント作成支援ツール.xlsx
+++ b/コンポーネント作成支援ツール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89A7118-0CB2-CB44-86AE-C4A900892F85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EF9DFE-5594-2C43-A4D2-77DB88D9FFF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{C678366D-3CA3-1945-8BE4-96DEAB0402A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
@@ -46,6 +46,38 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -94,12 +126,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -430,13 +462,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,58 +523,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1482FD8D-3777-C842-84E5-3C3A42F6077A}">
-  <dimension ref="B1:J10"/>
+  <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="F8" activeCellId="2" sqref="G6 G5 F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -855,30 +920,33 @@
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="25"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="21" thickBot="1">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="9">
         <v>3</v>
       </c>
@@ -902,7 +970,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -917,28 +985,28 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="17"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="20"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
@@ -950,15 +1018,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4">
@@ -966,37 +1034,134 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="30"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" ht="21" thickBot="1">
-      <c r="B10" s="18"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="21" thickBot="1">
+      <c r="B12" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="21" thickBot="1">
+      <c r="C13" s="32"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="2:10" ht="21" thickBot="1">
+      <c r="C14" s="32"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="2:10" ht="21" thickBot="1">
+      <c r="D15" s="33"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="17" spans="2:12" ht="21" thickBot="1">
+      <c r="B17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="21" thickBot="1">
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="2:12" ht="21" thickBot="1">
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="2:12" ht="21" thickBot="1">
+      <c r="D20" s="33"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="22" spans="2:12" ht="21" thickBot="1">
+      <c r="B22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="21" thickBot="1">
+      <c r="D23" s="33"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="2:12" ht="21" thickBot="1">
+      <c r="C24" s="32"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="2:12" ht="21" thickBot="1">
+      <c r="E25" s="33"/>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="27" spans="2:12" ht="21" thickBot="1">
+      <c r="B27" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="21" thickBot="1">
+      <c r="D28" s="33"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="2:12" ht="21" thickBot="1">
+      <c r="D29" s="34"/>
+      <c r="E29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="2:12" ht="21" thickBot="1">
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1008,5 +1173,9 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12 G12 G17 B17 B22 G22 G27 B27" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/コンポーネント作成支援ツール.xlsx
+++ b/コンポーネント作成支援ツール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EF9DFE-5594-2C43-A4D2-77DB88D9FFF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA870DF3-BAF8-B84A-B237-65006676970A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{C678366D-3CA3-1945-8BE4-96DEAB0402A1}"/>
   </bookViews>
@@ -911,9 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1482FD8D-3777-C842-84E5-3C3A42F6077A}">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
